--- a/storage/csv/additional/legacy_payments.xlsx
+++ b/storage/csv/additional/legacy_payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lerry/Herd/sksumpc/storage/csv/additional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0823DF-F2A2-184B-8868-F1CB90EEE7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF083B2F-F3D6-5C42-9B6C-A54C27527F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$H$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$H$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>RABUT, BENEDICT</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>1158</t>
+  </si>
+  <si>
+    <t>815.</t>
   </si>
 </sst>
 </file>
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H45" si="0">SUM(F2:G2)</f>
+        <f t="shared" ref="H2:H46" si="0">SUM(F2:G2)</f>
         <v>30020</v>
       </c>
     </row>
@@ -1604,226 +1607,226 @@
         <v>2657.18</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H35" si="2">SUM(F35:G35)</f>
         <v>27607.18</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6">
-        <v>45923</v>
+        <v>45920</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="7">
-        <v>216</v>
-      </c>
-      <c r="E36" s="19">
-        <v>830</v>
+        <v>282</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="F36" s="8">
-        <v>22040.38</v>
+        <v>0</v>
       </c>
       <c r="G36" s="8">
-        <v>183.67</v>
+        <v>191.28</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="0"/>
-        <v>22224.05</v>
+        <v>191.28</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
+        <v>45923</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="7">
+        <v>216</v>
+      </c>
+      <c r="E37" s="19">
+        <v>830</v>
+      </c>
+      <c r="F37" s="8">
+        <v>22040.38</v>
+      </c>
+      <c r="G37" s="8">
+        <v>183.67</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="0"/>
+        <v>22224.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
         <v>45927</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>237</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="19">
         <v>855</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>29363.57</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>274.06</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <f t="shared" si="0"/>
         <v>29637.63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="13">
-        <v>45930</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="14">
-        <v>422</v>
-      </c>
-      <c r="E38" s="21">
-        <v>871</v>
-      </c>
-      <c r="F38" s="15">
-        <v>19178.64</v>
-      </c>
-      <c r="G38" s="15">
-        <v>410.68</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" ref="H38" si="2">SUM(F38:G38)</f>
-        <v>19589.32</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="D39" s="14">
-        <v>129</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>67</v>
+        <v>422</v>
+      </c>
+      <c r="E39" s="21">
+        <v>871</v>
       </c>
       <c r="F39" s="15">
-        <v>3000</v>
+        <v>19178.64</v>
       </c>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>410.68</v>
       </c>
       <c r="H39" s="15">
-        <f>SUM(F39:G39)</f>
-        <v>3000</v>
-      </c>
-      <c r="J39" s="16"/>
+        <f t="shared" ref="H39" si="3">SUM(F39:G39)</f>
+        <v>19589.32</v>
+      </c>
     </row>
     <row r="40" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13">
-        <v>45958</v>
+        <v>45938</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D40" s="14">
-        <v>422</v>
+        <v>129</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F40" s="15">
-        <v>19323.02</v>
+        <v>3000</v>
       </c>
       <c r="G40" s="15">
-        <v>180.35</v>
+        <v>0</v>
       </c>
       <c r="H40" s="15">
         <f>SUM(F40:G40)</f>
-        <v>19503.37</v>
+        <v>3000</v>
       </c>
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
-        <v>45985</v>
+        <v>45958</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D41" s="14">
-        <v>313</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>69</v>
+        <v>422</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F41" s="15">
-        <v>24000</v>
+        <v>19323.02</v>
       </c>
       <c r="G41" s="15">
-        <v>8</v>
+        <v>180.35</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" ref="H41" si="3">SUM(F41:G41)</f>
-        <v>24008</v>
-      </c>
+        <f>SUM(F41:G41)</f>
+        <v>19503.37</v>
+      </c>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>45985</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D42" s="14">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F42" s="15">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="G42" s="15">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" ref="H42:H44" si="4">SUM(F42:G42)</f>
-        <v>50067</v>
+        <f t="shared" ref="H42" si="4">SUM(F42:G42)</f>
+        <v>24008</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="14">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F43" s="15">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="G43" s="15">
-        <v>23.33</v>
+        <v>67</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="4"/>
-        <v>14023.33</v>
+        <f t="shared" ref="H43:H45" si="5">SUM(F43:G43)</f>
+        <v>50067</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
-        <v>45990</v>
+        <v>45986</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D44" s="14">
-        <v>185</v>
+        <v>335</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F44" s="15">
-        <v>48392.61</v>
+        <v>14000</v>
       </c>
       <c r="G44" s="15">
-        <v>2806.77</v>
+        <v>23.33</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="4"/>
-        <v>51199.38</v>
+        <f t="shared" si="5"/>
+        <v>14023.33</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,21 +1834,45 @@
         <v>45990</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="14">
+        <v>185</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="15">
+        <v>48392.61</v>
+      </c>
+      <c r="G45" s="15">
+        <v>2806.77</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="5"/>
+        <v>51199.38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="13">
+        <v>45990</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>554</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E46" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>40250</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>14533.67</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <f t="shared" si="0"/>
         <v>54783.67</v>
       </c>
